--- a/biology/Botanique/Vachellia_seyal/Vachellia_seyal.xlsx
+++ b/biology/Botanique/Vachellia_seyal/Vachellia_seyal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vachellia seyal (synonyme : Acacia seyal) est une espèce de plantes de la famille des Fabaceae, sous-famille des Mimosoideae, originaire de l'Afrique tropicale.
 Ce sont des arbres épineux pouvant atteindre 10 mètres de haut, dont les produits (bois, écorce, exsudats) sont utilisés à diverses fins.  
-Avec Senegalia senegal (synonyme : Acacia senegal), il s'agit d’une des différentes espèces produisant de la gomme arabique. La gomme obtenue à partir de cette espèce est de consistance plus friable que les autres[2]. 
+Avec Senegalia senegal (synonyme : Acacia senegal), il s'agit d’une des différentes espèces produisant de la gomme arabique. La gomme obtenue à partir de cette espèce est de consistance plus friable que les autres. 
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce comprend deux variétés reconnues :
-Selon Catalogue of Life                                   (29 août 2018)[3] :
+Selon Catalogue of Life                                   (29 août 2018) :
 Vachellia seyal var. fistula (Schweinf.) Kyal. &amp; Boatwr.
 Vachellia seyal var. seyal (Delile) P.J.H.Hurter</t>
         </is>
